--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/20/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.5</v>
+        <v>16.349</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.506</v>
+        <v>16.554</v>
       </c>
     </row>
     <row r="5">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.324000000000002</v>
+        <v>-7.846000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.6</v>
+        <v>6.223000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.75</v>
+        <v>5.816</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.716</v>
+        <v>17.024</v>
       </c>
     </row>
     <row r="12">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.872</v>
+        <v>5.724</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -675,10 +675,10 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.967999999999999</v>
+        <v>-7.933</v>
       </c>
       <c r="E14" t="n">
-        <v>16.754</v>
+        <v>16.816</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.25</v>
+        <v>-8.196000000000002</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -737,16 +737,16 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>4.862</v>
+        <v>4.972</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.440000000000001</v>
+        <v>-8.32</v>
       </c>
       <c r="E18" t="n">
-        <v>16.696</v>
+        <v>16.583</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.426</v>
+        <v>16.452</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.286</v>
+        <v>-7.579000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.332</v>
+        <v>16.421</v>
       </c>
     </row>
     <row r="22">
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.398</v>
+        <v>6.074</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.578</v>
+        <v>16.473</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.85</v>
+        <v>-7.394</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.228</v>
+        <v>-7.048999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,10 +964,10 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.303999999999999</v>
+        <v>-7.613000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>17.128</v>
+        <v>16.822</v>
       </c>
     </row>
     <row r="32">
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.38</v>
+        <v>-7.737</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.068000000000001</v>
+        <v>8.56</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.668</v>
+        <v>16.731</v>
       </c>
     </row>
     <row r="39">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.136</v>
+        <v>-7.587999999999999</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.27</v>
+        <v>16.425</v>
       </c>
     </row>
     <row r="43">
@@ -1185,10 +1185,10 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.008</v>
+        <v>-7.447</v>
       </c>
       <c r="E44" t="n">
-        <v>17.156</v>
+        <v>16.992</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.984</v>
+        <v>16.442</v>
       </c>
     </row>
     <row r="48">
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.366000000000001</v>
+        <v>-8.125999999999999</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.673999999999999</v>
+        <v>-8.010999999999999</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>4.852</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.032</v>
+        <v>16.313</v>
       </c>
     </row>
     <row r="57">
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.374</v>
+        <v>16.387</v>
       </c>
     </row>
     <row r="59">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.176</v>
+        <v>17.023</v>
       </c>
     </row>
     <row r="66">
@@ -1587,13 +1587,13 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>5.274</v>
+        <v>5.788</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.982000000000001</v>
+        <v>-6.738</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.67</v>
+        <v>16.452</v>
       </c>
     </row>
     <row r="74">
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.369999999999999</v>
+        <v>-7.444</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.249999999999999</v>
+        <v>5.474</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>6.204</v>
+        <v>7.538000000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.640000000000001</v>
+        <v>6.375</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1791,7 +1791,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.83</v>
+        <v>8.183</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.662</v>
+        <v>5.879</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.812</v>
+        <v>5.659000000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.854000000000001</v>
+        <v>5.921</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.744</v>
+        <v>-8.297000000000001</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.856</v>
+        <v>-8.056000000000001</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>17.022</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="91">
@@ -2001,10 +2001,10 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.766</v>
+        <v>-7.017</v>
       </c>
       <c r="E92" t="n">
-        <v>17.058</v>
+        <v>17.237</v>
       </c>
     </row>
     <row r="93">
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>17.73</v>
+        <v>17.699</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.354</v>
+        <v>17.136</v>
       </c>
     </row>
     <row r="96">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.267</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.593999999999999</v>
+        <v>-8.244000000000002</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2148,16 +2148,16 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>8.032</v>
+        <v>6.813999999999998</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.938</v>
+        <v>-7.756</v>
       </c>
       <c r="E101" t="n">
-        <v>16.608</v>
+        <v>16.383</v>
       </c>
     </row>
     <row r="102">
@@ -2165,13 +2165,13 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.802</v>
+        <v>8.106</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.581999999999999</v>
+        <v>-7.929</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
